--- a/data/Demo Project/Demo Project_WBS.xlsx
+++ b/data/Demo Project/Demo Project_WBS.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,7 +656,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>이메일 회원가입</t>
+          <t>메인배너 관리</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -700,7 +700,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>소셜 로그인</t>
+          <t>공지사항 관리</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -744,7 +744,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>프로필 관리</t>
+          <t>IT콘텐츠 업로드</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -788,7 +788,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>상품 검색</t>
+          <t>QuickLink 관리</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -832,7 +832,7 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>상품 필터링</t>
+          <t>SR 상신 결재</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>상품 상세 정보 표시</t>
+          <t>SR 현황 공유</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -920,7 +920,7 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>리뷰 및 평점 시스템</t>
+          <t>IT자산 등록 관리</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -964,7 +964,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>장바구니 기능</t>
+          <t>SR/구매 이력 조회</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1005,12 +1005,12 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>다양한 결제 수단</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -1049,12 +1049,12 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Phase 2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>예산 9월 신청</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1096,7 +1096,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>주문 내역 조회</t>
+          <t>예산 Excel 등록</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1140,7 +1140,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>관리자 대시보드</t>
+          <t>계약 품의 관리</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1184,7 +1184,7 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>관리자 상품 관리</t>
+          <t>지급 관리</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>관리자 주문 관리</t>
+          <t>Knox 결재 연동</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1272,7 +1272,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>관리자 회원 관리</t>
+          <t>IPS 프로젝트 관리</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1316,7 +1316,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>페이지 로딩 속도</t>
+          <t>유지보수 여부 관리</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1360,7 +1360,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>동시 접속 1000명 지원</t>
+          <t>데이터 변경 이력</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1401,12 +1401,12 @@
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>평균 응답 속도</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HTTPS 통신 필수</t>
+          <t>시스템 가용성</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1489,12 +1489,12 @@
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Phase 3</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>응답 속도</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1536,7 +1536,7 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>개인정보 암호화</t>
+          <t>데이터베이스 제약</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1580,7 +1580,7 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SQL Injection 방어</t>
+          <t>OS 배포 제약</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>XSS 방어</t>
+          <t>개발언어 제약</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1668,7 +1668,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>시스템 가동률</t>
+          <t>웹서버 제약</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1707,226 +1707,6 @@
       </c>
       <c r="V27" t="inlineStr"/>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>데이터 백업</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>예산 1억원</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>기간 6개월</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>기술스택</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>클라우드 AWS</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Demo Project/Demo Project_WBS.xlsx
+++ b/data/Demo Project/Demo Project_WBS.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,7 +656,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>메인배너 관리</t>
+          <t>이메일 가입</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -700,7 +700,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>공지사항 관리</t>
+          <t>로그인</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -744,7 +744,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>IT콘텐츠 업로드</t>
+          <t>로그아웃</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -788,7 +788,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>QuickLink 관리</t>
+          <t>이메일 인증</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -832,7 +832,7 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SR 상신 결재</t>
+          <t>비밀번호 변경</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SR 현황 공유</t>
+          <t>비밀번호 재설정</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -917,12 +917,12 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>IT자산 등록 관리</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -964,7 +964,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SR/구매 이력 조회</t>
+          <t>계정 잠금 정책</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1005,12 +1005,12 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Phase 2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>세션 관리</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -1052,7 +1052,7 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>예산 9월 신청</t>
+          <t>역할 생성</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1096,7 +1096,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>예산 Excel 등록</t>
+          <t>역할 할당</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1140,7 +1140,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>계약 품의 관리</t>
+          <t>권한 부여 관리</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1184,7 +1184,7 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>지급 관리</t>
+          <t>자원 접근 제어 체크</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1225,12 +1225,12 @@
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Knox 결재 연동</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -1272,7 +1272,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IPS 프로젝트 관리</t>
+          <t>API 응답 속도</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1316,7 +1316,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>유지보수 여부 관리</t>
+          <t>보안 전송</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1360,7 +1360,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>데이터 변경 이력</t>
+          <t>비밀번호 해시</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1401,12 +1401,12 @@
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Phase 3</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>데이터베이스 제약</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1443,270 +1443,6 @@
       </c>
       <c r="V21" t="inlineStr"/>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>시스템 가용성</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>응답 속도</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>데이터베이스 제약</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>OS 배포 제약</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>개발언어 제약</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>웹서버 제약</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
